--- a/Results/PerformanceMatrix.xlsx
+++ b/Results/PerformanceMatrix.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\project\MachineLearningAlgorithms\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EB77E8-F474-40BC-804E-DD3EA57A1253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="19200" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miWH8D/o6kBnx/BbLZ0jN+xjypG2Q=="/>
@@ -57,31 +66,46 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="&quot;맑은 고딕&quot;"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,60 +113,61 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -332,58 +357,60 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.57"/>
-    <col customWidth="1" min="2" max="16" width="8.71"/>
-    <col customWidth="1" min="17" max="17" width="25.57"/>
-    <col customWidth="1" min="18" max="31" width="8.71"/>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="2" max="16" width="8.7265625" customWidth="1"/>
+    <col min="17" max="17" width="25.54296875" customWidth="1"/>
+    <col min="18" max="31" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:31" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D1" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E1" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="F1" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="G1" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="H1" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="I1" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="J1" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="K1" s="2">
-        <v>10.0</v>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>1</v>
@@ -397,340 +424,410 @@
       <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:31" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
+      <c r="B2" s="5">
+        <v>0.44730323599999999</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.85775560100000003</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.83373481000000005</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.82243448500000005</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.84547823700000002</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.76977324499999999</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.82261651800000002</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.78001987900000003</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.82463562499999998</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.78992962799999999</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0.77936812600000005</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.77392937299999998</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.785133415</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.77937415099999996</v>
+      </c>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:31" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
+      <c r="B3" s="5">
+        <v>0.45265115099999997</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.58884364300000003</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.58129245299999999</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.58015078499999995</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.59742085300000003</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.54339511600000001</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.59169918399999999</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.52636551499999995</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.57630236099999999</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.60638610100000001</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.56445071599999996</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.56662195100000001</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.57740814799999995</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.56445071599999996</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:31" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
-        <v>0.433673</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.44968</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="B4" s="6">
+        <v>0.43367299999999998</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.44968000000000002</v>
+      </c>
+      <c r="D4" s="6">
         <v>0.44083</v>
       </c>
-      <c r="E4" s="5">
-        <v>0.450871</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.516563</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.479965</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0.583363</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="E4" s="6">
+        <v>0.45087100000000002</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.51656299999999999</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.47996499999999997</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.58336299999999996</v>
+      </c>
+      <c r="I4" s="6">
         <v>0.457042</v>
       </c>
-      <c r="J4" s="5">
-        <v>0.519995</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0.586136</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0.491812</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0.476751</v>
-      </c>
-      <c r="N4" s="5">
+      <c r="J4" s="6">
+        <v>0.51999499999999999</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.58613599999999999</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.49181200000000003</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0.47675099999999998</v>
+      </c>
+      <c r="N4" s="6">
         <v>0.499365</v>
       </c>
-      <c r="O4" s="5">
-        <v>0.491812</v>
-      </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
+      <c r="O4" s="6">
+        <v>0.49181200000000003</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:31" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6">
-        <v>0.395396551</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.436752634</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.426497165</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.480842912</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="B5" s="5">
+        <v>0.39539655099999998</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.43675263399999997</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.42649716500000001</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.48084291200000001</v>
+      </c>
+      <c r="F5" s="5">
         <v>0.468585747</v>
       </c>
-      <c r="G5" s="6">
-        <v>0.476375405</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0.488293721</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0.461942722</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0.465646137</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0.459998826</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0.456033182</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0.453146806</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0.455406366</v>
-      </c>
-      <c r="O5" s="6">
-        <v>0.456033182</v>
-      </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
+      <c r="G5" s="5">
+        <v>0.47637540499999997</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.48829372100000001</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.46194272199999997</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.46564613700000002</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.45999882600000003</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.45603318199999998</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.45314680600000001</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.45540636600000001</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.45603318199999998</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:31" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5">
-        <v>0.448868</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.535453</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.541534</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.557657</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.516868</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0.536275</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="B6" s="6">
+        <v>0.44886799999999999</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.53545299999999996</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.54153399999999996</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.55765699999999996</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.51686799999999999</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.53627499999999995</v>
+      </c>
+      <c r="H6" s="6">
         <v>0.607603</v>
       </c>
-      <c r="I6" s="5">
-        <v>0.526306</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0.560401</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0.540529</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0.53715</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0.527313</v>
-      </c>
-      <c r="N6" s="5">
+      <c r="I6" s="6">
+        <v>0.52630600000000005</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.56040100000000004</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.54052900000000004</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.53715000000000002</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0.52731300000000003</v>
+      </c>
+      <c r="N6" s="6">
         <v>0.578121</v>
       </c>
-      <c r="O6" s="5">
-        <v>0.53715</v>
-      </c>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
+      <c r="O6" s="6">
+        <v>0.53715000000000002</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
+    <row r="7" spans="1:31" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8">
-        <v>0.382060653</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0.388921207</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="B7" s="7">
+        <v>0.38206065299999997</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.38892120699999999</v>
+      </c>
+      <c r="D7" s="7">
         <v>0.400448682</v>
       </c>
-      <c r="E7" s="8">
-        <v>0.411568409</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0.374404107</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="E7" s="7">
+        <v>0.41156840900000002</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.37440410699999999</v>
+      </c>
+      <c r="G7" s="7">
         <v>0.418476022</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>0.366914982</v>
       </c>
-      <c r="I7" s="8">
-        <v>0.363153233</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0.413136347</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0.425133533</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0.394421718</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0.30178045</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0.333157748</v>
-      </c>
-      <c r="O7" s="8">
-        <v>0.394421718</v>
-      </c>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
+      <c r="I7" s="7">
+        <v>0.36315323300000002</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.41313634700000001</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.42513353300000001</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.39442171799999998</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0.30178044999999998</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0.33315774799999998</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0.39442171799999998</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
     </row>
-    <row r="8" ht="16.5" customHeight="1">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:31" ht="16.5" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
     </row>
-    <row r="9" ht="16.5" customHeight="1"/>
-    <row r="10" ht="16.5" customHeight="1"/>
-    <row r="11" ht="16.5" customHeight="1"/>
-    <row r="12" ht="16.5" customHeight="1"/>
-    <row r="13" ht="16.5" customHeight="1"/>
-    <row r="14" ht="16.5" customHeight="1"/>
-    <row r="15" ht="16.5" customHeight="1"/>
-    <row r="16" ht="16.5" customHeight="1"/>
+    <row r="9" spans="1:31" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:31" ht="16.5" customHeight="1"/>
+    <row r="11" spans="1:31" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:31" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:31" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:31" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:31" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:31" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>
@@ -1716,9 +1813,8 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results/PerformanceMatrix.xlsx
+++ b/Results/PerformanceMatrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\project\MachineLearningAlgorithms\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeeInGyu\Desktop\Project\MachineLearningAlgorithms\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EB77E8-F474-40BC-804E-DD3EA57A1253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA4D809-1A72-45F7-B029-E2C779F0CD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="19200" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Test도 스모트한 것</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Accuracy</t>
   </si>
@@ -60,17 +57,23 @@
     <t>Naïve Bayes</t>
   </si>
   <si>
-    <t>LSTM</t>
+    <t>Test도 SMOTE, 7D1T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test도 SMOTE, 5D3T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="179" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +110,20 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -128,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -146,9 +163,10 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -366,21 +384,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
-    <col min="2" max="16" width="8.7265625" customWidth="1"/>
-    <col min="17" max="17" width="25.54296875" customWidth="1"/>
-    <col min="18" max="31" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="25.53515625" customWidth="1"/>
+    <col min="2" max="2" width="12.53515625" customWidth="1"/>
+    <col min="3" max="16" width="8.765625" customWidth="1"/>
+    <col min="17" max="17" width="25.53515625" customWidth="1"/>
+    <col min="18" max="31" width="8.765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -413,16 +432,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -437,50 +456,22 @@
     </row>
     <row r="2" spans="1:31" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0.44730323599999999</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0.85775560100000003</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.83373481000000005</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.82243448500000005</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.84547823700000002</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0.76977324499999999</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0.82261651800000002</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0.78001987900000003</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0.82463562499999998</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0.78992962799999999</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0.77936812600000005</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0.77392937299999998</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0.785133415</v>
-      </c>
-      <c r="O2" s="5">
-        <v>0.77937415099999996</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -498,50 +489,22 @@
     </row>
     <row r="3" spans="1:31" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.45265115099999997</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.58884364300000003</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.58129245299999999</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.58015078499999995</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.59742085300000003</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.54339511600000001</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0.59169918399999999</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0.52636551499999995</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0.57630236099999999</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0.60638610100000001</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0.56445071599999996</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0.56662195100000001</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0.57740814799999995</v>
-      </c>
-      <c r="O3" s="5">
-        <v>0.56445071599999996</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -559,50 +522,22 @@
     </row>
     <row r="4" spans="1:31" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0.43367299999999998</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.44968000000000002</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.44083</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.45087100000000002</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.51656299999999999</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.47996499999999997</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0.58336299999999996</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.457042</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0.51999499999999999</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0.58613599999999999</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0.49181200000000003</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0.47675099999999998</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0.499365</v>
-      </c>
-      <c r="O4" s="6">
-        <v>0.49181200000000003</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -620,49 +555,49 @@
     </row>
     <row r="5" spans="1:31" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0.39539655099999998</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.43675263399999997</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.42649716500000001</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.48084291200000001</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.468585747</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.47637540499999997</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0.48829372100000001</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0.46194272199999997</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0.46564613700000002</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0.45999882600000003</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0.45603318199999998</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0.45314680600000001</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0.45540636600000001</v>
-      </c>
-      <c r="O5" s="5">
-        <v>0.45603318199999998</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.47246454018778722</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.43990144502896722</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.45002330691882531</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.42258773390157822</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.41606179663048543</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.43996803622561098</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.40933608576946129</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.44309782246786977</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.47542621204049013</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.45471497069792222</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.44235819498689982</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0.44047628793249433</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0.44152635600409151</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0.44235819498689982</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
@@ -681,49 +616,49 @@
     </row>
     <row r="6" spans="1:31" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.44886799999999999</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.53545299999999996</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.54153399999999996</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0.55765699999999996</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.51686799999999999</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.53627499999999995</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.607603</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.52630600000000005</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0.56040100000000004</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0.54052900000000004</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0.53715000000000002</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0.52731300000000003</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0.578121</v>
-      </c>
-      <c r="O6" s="6">
-        <v>0.53715000000000002</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.53106479323433442</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.51401744689352069</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.50456149697010055</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.55264034094692682</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.48118798694812548</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.5688220017313711</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.45854698008923223</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.51881201305187452</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.51811401172083116</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.49527171017581251</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.51430387817621293</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.51472800270096397</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0.54600917000263727</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0.51430387817621293</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -742,49 +677,49 @@
     </row>
     <row r="7" spans="1:31" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="7">
-        <v>0.38206065299999997</v>
+        <v>0.38576280215755482</v>
       </c>
       <c r="C7" s="7">
-        <v>0.38892120699999999</v>
+        <v>0.41626157022041688</v>
       </c>
       <c r="D7" s="7">
-        <v>0.400448682</v>
+        <v>0.40360924285809419</v>
       </c>
       <c r="E7" s="7">
-        <v>0.41156840900000002</v>
+        <v>0.40414197243124461</v>
       </c>
       <c r="F7" s="7">
-        <v>0.37440410699999999</v>
+        <v>0.36784977026037158</v>
       </c>
       <c r="G7" s="7">
-        <v>0.418476022</v>
+        <v>0.42265432509822198</v>
       </c>
       <c r="H7" s="7">
-        <v>0.366914982</v>
+        <v>0.34654058733435439</v>
       </c>
       <c r="I7" s="7">
-        <v>0.36315323300000002</v>
+        <v>0.39342078977159223</v>
       </c>
       <c r="J7" s="7">
-        <v>0.41313634700000001</v>
+        <v>0.37846297282898239</v>
       </c>
       <c r="K7" s="7">
-        <v>0.42513353300000001</v>
+        <v>0.36687533297815661</v>
       </c>
       <c r="L7" s="7">
-        <v>0.39442171799999998</v>
+        <v>0.38855793659389892</v>
       </c>
       <c r="M7" s="7">
-        <v>0.30178044999999998</v>
+        <v>0.29225201400153961</v>
       </c>
       <c r="N7" s="7">
-        <v>0.33315774799999998</v>
+        <v>0.5666086629297753</v>
       </c>
       <c r="O7" s="7">
-        <v>0.39442171799999998</v>
+        <v>0.38855793659389892</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -802,9 +737,7 @@
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -820,13 +753,307 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:31" ht="16.5" customHeight="1"/>
-    <row r="10" spans="1:31" ht="16.5" customHeight="1"/>
-    <row r="11" spans="1:31" ht="16.5" customHeight="1"/>
-    <row r="12" spans="1:31" ht="16.5" customHeight="1"/>
-    <row r="13" spans="1:31" ht="16.5" customHeight="1"/>
-    <row r="14" spans="1:31" ht="16.5" customHeight="1"/>
-    <row r="15" spans="1:31" ht="16.5" customHeight="1"/>
+    <row r="9" spans="1:31" ht="16.5" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1">
+        <v>9</v>
+      </c>
+      <c r="K9" s="1">
+        <v>10</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="16.5" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:31" ht="16.5" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.57832744400000002</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.51982724800000002</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.53965449499999996</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.56674519000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.51276010999999999</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.58048684699999997</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.50510404399999997</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.51659140000000003</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.53877871600000005</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0.55173767900000004</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0.54100131699999998</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0.54174797900000005</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0.54737962100000004</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0.54100131699999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="16.5" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.51138594400000004</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.48684727100000003</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.48841774599999999</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.48311739300000001</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.474872399</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.48822143699999998</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.44680015699999998</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.47771450999999998</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0.505988612</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0.49577852</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0.485914399</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0.46572353399999999</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0.48845980999999999</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0.485914399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="16.5" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.47526501799999998</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.45425991399999999</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.45857872</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.42108362799999999</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.43659206900000003</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.43737730699999999</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.41676482100000001</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.44551344999999998</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0.47005694100000001</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0.46141763200000002</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0.44769094999999998</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0.445840546</v>
+      </c>
+      <c r="N13" s="10">
+        <v>0.44644861800000002</v>
+      </c>
+      <c r="O13" s="10">
+        <v>0.44769094999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="16.5" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.520219867</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.51197487200000003</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.51393796599999997</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.56007067099999996</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.45190420100000001</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.55751864900000003</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0.43855516300000003</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0.51580600799999998</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0.50559591599999998</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0.48772825400000003</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0.50633115699999998</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0.50172533200000002</v>
+      </c>
+      <c r="N14" s="10">
+        <v>0.55575585299999997</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0.50633115699999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="16.5" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.387318414</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.41185708700000001</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.40891244599999998</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.40184530800000001</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.35924617199999997</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.42245779300000003</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0.341970946</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0.39171411699999997</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0.39446298800000001</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0.37698802300000001</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0.38967732999999999</v>
+      </c>
+      <c r="M15" s="10">
+        <v>0.29552104499999998</v>
+      </c>
+      <c r="N15" s="10">
+        <v>0.478475237</v>
+      </c>
+      <c r="O15" s="10">
+        <v>0.38967732999999999</v>
+      </c>
+    </row>
     <row r="16" spans="1:31" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
